--- a/src/test/java/TestData/purchaseWithDiscountData.xlsx
+++ b/src/test/java/TestData/purchaseWithDiscountData.xlsx
@@ -4,20 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450" activeTab="3"/>
+    <workbookView windowWidth="27720" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase With Discount Data" sheetId="4" r:id="rId1"/>
-    <sheet name="Discount Email" sheetId="5" r:id="rId2"/>
-    <sheet name="Purchase Data" sheetId="6" r:id="rId3"/>
-    <sheet name="Jumia Pay Business Data" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>aetman</t>
   </si>
@@ -63,8 +60,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -100,6 +97,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,6 +119,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -114,8 +149,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,100 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,19 +234,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +378,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,145 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +425,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,6 +471,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -469,206 +525,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,117 +1010,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="62.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="22.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="16.1111111111111" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="ahmed.etman@jumia.com"/>
-    <hyperlink ref="E1" r:id="rId2" display="Fawryfawry@2022" tooltip="mailto:Fawryfawry@2022"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="45.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="45.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="62.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="33.2222222222222" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,12 +1021,14 @@
     <col min="2" max="2" width="62.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="22.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="16.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="31.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="151.777777777778" customWidth="1"/>
-    <col min="11" max="11" width="9.22222222222222"/>
+    <col min="6" max="6" width="45.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" customWidth="1"/>
+    <col min="8" max="8" width="33.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="31.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="139.111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,22 +1044,31 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1178,7 +1076,7 @@
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" display="ahmed.etman@jumia.com"/>
     <hyperlink ref="E1" r:id="rId2" display="Fawryfawry@2022" tooltip="mailto:Fawryfawry@2022"/>
-    <hyperlink ref="F1" r:id="rId3" display="tester.pay+e2e_customer1@jumia.com" tooltip="mailto:tester.pay+e2e_customer1@jumia.com"/>
+    <hyperlink ref="I1" r:id="rId3" display="tester.pay+e2e_customer1@jumia.com" tooltip="mailto:tester.pay+e2e_customer1@jumia.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/java/TestData/purchaseWithDiscountData.xlsx
+++ b/src/test/java/TestData/purchaseWithDiscountData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>aetman</t>
   </si>
@@ -40,13 +40,16 @@
     <t>[Automation Only] Automation Discount</t>
   </si>
   <si>
-    <t>tester.pay+e2e_customer1@jumia.com</t>
+    <t>e2e_customer_user1@maildrop.cc</t>
   </si>
   <si>
     <t>"100"</t>
   </si>
   <si>
     <t>"1"</t>
+  </si>
+  <si>
+    <t>Test1234</t>
   </si>
   <si>
     <t>AAEAAADoKU7YK9u3aI1rq-LU50YfwWq0saii9VduOhxwQ0M1LfDcfNZ6/AAEAAAgfi0NzAoCA3Xs81jUu9-epk9U7AIoVZpYy7VgLVOeK8tNgeGsp/ea73b6e3262394296251b9dbc91062e4</t>
@@ -61,8 +64,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -97,23 +100,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,9 +153,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,47 +196,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,21 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -217,9 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,19 +237,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,43 +375,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,67 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,43 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,30 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +455,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -494,8 +488,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +501,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,142 +533,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,8 +1015,8 @@
   <sheetPr/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
@@ -1063,20 +1066,20 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" display="ahmed.etman@jumia.com"/>
     <hyperlink ref="E1" r:id="rId2" display="Fawryfawry@2022" tooltip="mailto:Fawryfawry@2022"/>
-    <hyperlink ref="I1" r:id="rId3" display="tester.pay+e2e_customer1@jumia.com" tooltip="mailto:tester.pay+e2e_customer1@jumia.com"/>
+    <hyperlink ref="I1" r:id="rId3" display="e2e_customer_user1@maildrop.cc" tooltip="mailto:e2e_customer_user1@maildrop.cc"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/java/TestData/purchaseWithDiscountData.xlsx
+++ b/src/test/java/TestData/purchaseWithDiscountData.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450"/>
+    <workbookView windowWidth="27720" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase With Discount Data" sheetId="4" r:id="rId1"/>
+    <sheet name="PurchaseWithDifferentShopData" sheetId="5" r:id="rId2"/>
+    <sheet name="PurchaseWithoutDiscountData" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>aetman</t>
   </si>
@@ -56,6 +58,9 @@
   </si>
   <si>
     <t>"1234"</t>
+  </si>
+  <si>
+    <t>AAEAAADoKU7YDDRS0-b9r24b30w4Z0ND1bJc15IwKEJ_YbvHX69464gp/AAEAAAgfi0J9mP1cwTdlxJ55ZlFlvzbTzpvuVK2pNxUdndavMuWKp0lL/38690637b4c79269821ae54379b2864a</t>
   </si>
 </sst>
 </file>
@@ -64,8 +69,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -77,22 +82,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF0052CC"/>
       <name val="Calibri"/>
@@ -100,6 +89,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -107,39 +112,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +143,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -160,28 +158,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -190,7 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,9 +198,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,17 +212,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +242,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,169 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,30 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,6 +447,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,11 +475,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +538,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -682,16 +687,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,8 +1020,8 @@
   <sheetPr/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
@@ -1041,10 +1046,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1056,13 +1061,13 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1071,7 +1076,7 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1084,4 +1089,102 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="138.777777777778" customWidth="1"/>
+    <col min="5" max="5" width="27.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" display="e2e_customer_user1@maildrop.cc" tooltip="mailto:e2e_customer_user1@maildrop.cc"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="27.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="5.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="3.55555555555556" customWidth="1"/>
+    <col min="5" max="5" width="138.777777777778" customWidth="1"/>
+    <col min="6" max="6" width="6.55555555555556" customWidth="1"/>
+    <col min="7" max="7" width="3.22222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="e2e_customer_user1@maildrop.cc" tooltip="mailto:e2e_customer_user1@maildrop.cc"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/java/TestData/purchaseWithDiscountData.xlsx
+++ b/src/test/java/TestData/purchaseWithDiscountData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450" activeTab="2"/>
+    <workbookView windowWidth="27720" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase With Discount Data" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>aetman</t>
   </si>
@@ -68,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -106,15 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,9 +121,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,8 +143,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -158,17 +189,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,36 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,16 +461,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +490,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,15 +528,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -538,142 +538,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,8 +1020,8 @@
   <sheetPr/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
@@ -1094,44 +1094,51 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="138.777777777778" customWidth="1"/>
-    <col min="5" max="5" width="27.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="57.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="138.777777777778" customWidth="1"/>
+    <col min="7" max="7" width="27.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" display="e2e_customer_user1@maildrop.cc" tooltip="mailto:e2e_customer_user1@maildrop.cc"/>
+    <hyperlink ref="G1" r:id="rId1" display="e2e_customer_user1@maildrop.cc" tooltip="mailto:e2e_customer_user1@maildrop.cc"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1143,7 +1150,7 @@
   <sheetPr/>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
